--- a/data.xlsx
+++ b/data.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="10905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="10905" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="basicData" sheetId="1" r:id="rId1"/>
     <sheet name="degree" sheetId="2" r:id="rId2"/>
+    <sheet name="groupSize" sheetId="3" r:id="rId3"/>
+    <sheet name="baseline" sheetId="4" r:id="rId4"/>
+    <sheet name="CN3_query" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>#Authors</t>
   </si>
@@ -55,6 +58,66 @@
   </si>
   <si>
     <t>CN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#numYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#(X年前相連 &amp; X年合作) / #X年合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#(X年前相連 &amp; X年合作) / #(X年前出現過 &amp; X年合作)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio2 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#(X年合作 &amp; X年前不相連)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#(X年合作 &amp; X年前不相連 &amp; 其中1位是主要群體中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#(X年合作 &amp; X年前就出現)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directed connected times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6309,11 +6371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="431503856"/>
-        <c:axId val="431503296"/>
+        <c:axId val="288945216"/>
+        <c:axId val="287756816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="431503856"/>
+        <c:axId val="288945216"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -6356,6 +6418,2538 @@
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
                   <a:t>Degree</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287756816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="287756816"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288945216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Distribution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> of group size</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>groupSize!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>groupSize!$C$3:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90242</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>354067</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>291363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>groupSize!$D$3:$D$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>7633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>groupSize!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>groupSize!$C$3:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90242</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>354067</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>291363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>groupSize!$E$3:$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="46">
+                  <c:v>13395</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7477</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>groupSize!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>groupSize!$C$3:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90242</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>354067</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>291363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>groupSize!$F$3:$F$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="81">
+                  <c:v>12466</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7023</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3567</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="291094896"/>
+        <c:axId val="291095456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="291094896"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291095456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291095456"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291094896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Ratio ~ #Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Years</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>baseline!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baseline!$A$29:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baseline!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.22916900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.209561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.171208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2064499999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>baseline!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baseline!$A$29:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baseline!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.49444300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46016099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41638599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27866400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>baseline!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baseline!$A$29:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baseline!$D$29:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45258399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.406835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36358000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22974900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="335555136"/>
+        <c:axId val="335127056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="335555136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>#TrainingYears</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
@@ -6428,14 +9022,14 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431503296"/>
+        <c:crossAx val="335127056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="431503296"/>
+        <c:axId val="335127056"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6475,7 +9069,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Count</a:t>
+                  <a:t>Ratio</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
@@ -6548,7 +9142,648 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431503856"/>
+        <c:crossAx val="335555136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Ratio2 ~ #TrainingYears</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>baseline!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baseline!$A$29:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baseline!$E$29:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.83318099999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80726399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76908299999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.698214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>baseline!$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baseline!$A$29:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baseline!$F$29:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95680799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94600099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91970300000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84857400000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>baseline!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baseline!$A$29:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baseline!$G$29:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.94535100000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92838500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89659299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82174899999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338333744"/>
+        <c:axId val="338333184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338333744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>#Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t>Years</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338333184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338333184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Ratio2</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338333744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6630,6 +9865,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7185,6 +10540,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7212,6 +12115,106 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2257424</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990599</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7486,7 +12489,7 @@
   <dimension ref="C5:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7557,7 +12560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -11531,4 +16534,1615 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>7633</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>90242</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>13395</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>7477</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>21</v>
+      </c>
+      <c r="E68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>25</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>26</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>27</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>29</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>30</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>32</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>33</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>34</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>37</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>52</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>54</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>354067</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>12466</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>19</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>21</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>22</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>23</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>24</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>25</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>26</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>27</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>29</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>30</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>33</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>34</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>36</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>44</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>47</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>54</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>59</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>291363</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>2012</v>
+      </c>
+      <c r="J5">
+        <v>0.22916900000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.83318099999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>2011</v>
+      </c>
+      <c r="J6">
+        <v>0.209561</v>
+      </c>
+      <c r="K6">
+        <v>0.80726399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>2010</v>
+      </c>
+      <c r="J7">
+        <v>0.171208</v>
+      </c>
+      <c r="K7">
+        <v>0.76908299999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>2009</v>
+      </c>
+      <c r="J8">
+        <v>8.2064499999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.698214</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>2012</v>
+      </c>
+      <c r="J11">
+        <v>0.49444300000000002</v>
+      </c>
+      <c r="K11">
+        <v>0.95680799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>2011</v>
+      </c>
+      <c r="J12">
+        <v>0.46016099999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.94600099999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>2010</v>
+      </c>
+      <c r="J13">
+        <v>0.41638599999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.91970300000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>2009</v>
+      </c>
+      <c r="J14">
+        <v>0.27866400000000002</v>
+      </c>
+      <c r="K14">
+        <v>0.84857400000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>2012</v>
+      </c>
+      <c r="J17">
+        <v>0.45258399999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.94535100000000005</v>
+      </c>
+      <c r="L17">
+        <v>16310</v>
+      </c>
+      <c r="M17">
+        <v>298450</v>
+      </c>
+      <c r="N17">
+        <v>14668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>2011</v>
+      </c>
+      <c r="J18">
+        <v>0.406835</v>
+      </c>
+      <c r="K18">
+        <v>0.92838500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>2010</v>
+      </c>
+      <c r="J19">
+        <v>0.36358000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.89659299999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2009</v>
+      </c>
+      <c r="J20">
+        <v>0.22974900000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.82174899999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0.22916900000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.49444300000000002</v>
+      </c>
+      <c r="D29">
+        <v>0.45258399999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.83318099999999995</v>
+      </c>
+      <c r="F29">
+        <v>0.95680799999999999</v>
+      </c>
+      <c r="G29">
+        <v>0.94535100000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0.209561</v>
+      </c>
+      <c r="C30">
+        <v>0.46016099999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.406835</v>
+      </c>
+      <c r="E30">
+        <v>0.80726399999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.94600099999999998</v>
+      </c>
+      <c r="G30">
+        <v>0.92838500000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.171208</v>
+      </c>
+      <c r="C31">
+        <v>0.41638599999999998</v>
+      </c>
+      <c r="D31">
+        <v>0.36358000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.76908299999999996</v>
+      </c>
+      <c r="F31">
+        <v>0.91970300000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.89659299999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>8.2064499999999999E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.27866400000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.22974900000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.698214</v>
+      </c>
+      <c r="F32">
+        <v>0.84857400000000005</v>
+      </c>
+      <c r="G32">
+        <v>0.82174899999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>C14-1</f>
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" ref="C16:C52" si="0">C15-1</f>
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>13308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>